--- a/medicine/Mort/Alfredo_Salafia/Alfredo_Salafia.xlsx
+++ b/medicine/Mort/Alfredo_Salafia/Alfredo_Salafia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alfredo Salafia (Palerme, 7 novembre 1869 – id., 31 janvier 1933), est un chimiste et un embaumeur italien.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Alfredo Salafia met au point une méthode de conservation de la matière organique basée sur l'injection de substances chimiques. Après avoir longtemps appliqué son système en taxidermie, il obtient, en 1899, la permission d'expérimenter le mélange sur des cadavres humains de l'école anatomique du professeur Randaccio. La conservation parfaite des corps qu'il obtient suscite bientôt admiration et intérêt.
 Ainsi, deux années plus tard, Salafia est invité à restaurer le corps du président du Conseil italien Francesco Crispi, embaumé à Naples, mais conservé à Palerme dans des conditions précaires. L'œuvre minutieuse de restauration lui vaut les félicitations de la presse. Elle lui permet d'être à nouveau sollicité pour la préparation de personnages importants, de façon qu'ils puissent être exposés pendant une assez longue période. On compte parmi ceux-ci : le cardinal Celesia, le sénateur Arma, l'éditeur Biondi et l'écrivain et anthropologue Giuseppe Pitrè. En 1910, Salafia est invité à New York pour y effectuer des démonstrations de sa méthode face à l'Eclectic Medical College ; elles sont toutes couronnées de succès.
